--- a/results/tinybert/dilemma/confidence/0.1/sum_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
   <si>
     <t>negative</t>
   </si>
@@ -64,721 +64,868 @@
     <t>shit</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>annoyed</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>foolish</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>ruining</t>
+  </si>
+  <si>
+    <t>differently</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>dangerously</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>uncomfortably</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>corrupt</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>oldest</t>
+  </si>
+  <si>
+    <t>emotional</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>hugely</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>humane</t>
+  </si>
+  <si>
+    <t>amazed</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>trusted</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>appreciate</t>
   </si>
   <si>
     <t>[UNK]</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>downward</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>ominous</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>accusing</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>excessive</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>cruel</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>throwing</t>
-  </si>
-  <si>
-    <t>violating</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>severely</t>
-  </si>
-  <si>
-    <t>harder</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>extreme</t>
-  </si>
-  <si>
-    <t>casually</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>improvement</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>clarity</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>famous</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>highest</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>entirety</t>
-  </si>
-  <si>
-    <t>enhanced</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>stunning</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1205,13 +1352,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1197007481296758</v>
+        <v>0.1378340365682138</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1223,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K3">
-        <v>0.1150234741784038</v>
+        <v>0.1085972850678733</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1247,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1255,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08104738154613467</v>
+        <v>0.09845288326300984</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1273,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K4">
-        <v>0.09859154929577464</v>
+        <v>0.08446455505279035</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1297,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1305,13 +1452,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.07855361596009976</v>
+        <v>0.08720112517580872</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1323,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K5">
-        <v>0.07981220657276995</v>
+        <v>0.06485671191553545</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1347,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1355,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05361596009975062</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1373,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K6">
-        <v>0.07746478873239436</v>
+        <v>0.06033182503770739</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1397,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1405,13 +1552,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03615960099750624</v>
+        <v>0.03938115330520394</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1423,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K7">
-        <v>0.0539906103286385</v>
+        <v>0.05580693815987934</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1447,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1455,13 +1602,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02992518703241895</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1473,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K8">
-        <v>0.04460093896713615</v>
+        <v>0.04675716440422323</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1497,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1505,13 +1652,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02119700748129676</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1523,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K9">
-        <v>0.03990610328638498</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1547,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1555,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01870324189526185</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1573,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K10">
-        <v>0.03990610328638498</v>
+        <v>0.03318250377073906</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1597,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1081</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1605,13 +1752,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01870324189526185</v>
+        <v>0.01969057665260197</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1623,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K11">
-        <v>0.03990610328638498</v>
+        <v>0.02865761689291101</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1647,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1655,13 +1802,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01870324189526185</v>
+        <v>0.01828410689170183</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1673,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K12">
-        <v>0.0352112676056338</v>
+        <v>0.02865761689291101</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1697,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1705,13 +1852,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01870324189526185</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1723,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K13">
-        <v>0.03286384976525822</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1747,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1755,13 +1902,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01745635910224439</v>
+        <v>0.01547116736990155</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1773,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K14">
-        <v>0.02112676056338028</v>
+        <v>0.01508295625942685</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1797,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1805,13 +1952,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01745635910224439</v>
+        <v>0.01547116736990155</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1823,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="K15">
-        <v>0.0187793427230047</v>
+        <v>0.01508295625942685</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1847,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1855,13 +2002,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01620947630922693</v>
+        <v>0.01406469760900141</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1873,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K16">
-        <v>0.01408450704225352</v>
+        <v>0.01206636500754148</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1897,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1905,13 +2052,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01496259351620948</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1923,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K17">
-        <v>0.01173708920187793</v>
+        <v>0.01206636500754148</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1947,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1955,13 +2102,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01371571072319202</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1973,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K18">
-        <v>0.01173708920187793</v>
+        <v>0.01055806938159879</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1997,21 +2144,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.01371571072319202</v>
+        <v>0.01125175808720113</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2023,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K19">
-        <v>0.009389671361502348</v>
+        <v>0.01055806938159879</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2047,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01371571072319202</v>
+        <v>0.01125175808720113</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2073,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K20">
-        <v>0.009389671361502348</v>
+        <v>0.01055806938159879</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2097,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01246882793017456</v>
+        <v>0.01125175808720113</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2123,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K21">
-        <v>0.007042253521126761</v>
+        <v>0.007541478129713424</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2147,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01122194513715711</v>
+        <v>0.009845288326300985</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2173,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K22">
-        <v>0.007042253521126761</v>
+        <v>0.007541478129713424</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2197,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2205,13 +2352,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01122194513715711</v>
+        <v>0.009845288326300985</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2223,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K23">
-        <v>0.007042253521126761</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2247,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2255,13 +2402,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009975062344139651</v>
+        <v>0.009845288326300985</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2273,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K24">
-        <v>0.007042253521126761</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2297,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2305,13 +2452,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009975062344139651</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2323,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K25">
-        <v>0.007042253521126761</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2347,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2355,13 +2502,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009975062344139651</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2373,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K26">
-        <v>0.007042253521126761</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2397,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2405,13 +2552,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009975062344139651</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2423,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27">
+        <v>0.006033182503770739</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27">
-        <v>0.004694835680751174</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
       <c r="M27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2447,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2455,13 +2602,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.009975062344139651</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2473,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K28">
-        <v>0.004694835680751174</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2497,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>335</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2505,13 +2652,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.008728179551122194</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2523,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K29">
-        <v>0.004694835680751174</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2547,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2555,13 +2702,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.008728179551122194</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2573,19 +2720,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K30">
-        <v>0.004694835680751174</v>
+        <v>0.006033182503770739</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2597,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>960</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2605,13 +2752,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.008728179551122194</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2623,19 +2770,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K31">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2647,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2655,13 +2802,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008728179551122194</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2673,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K32">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2697,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2705,13 +2852,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008728179551122194</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2723,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="K33">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2747,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2755,13 +2902,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008728179551122194</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2773,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K34">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2797,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2805,13 +2952,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007481296758104738</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2823,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K35">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2847,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>383</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2855,13 +3002,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.007481296758104738</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2873,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K36">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2897,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2905,13 +3052,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.007481296758104738</v>
+        <v>0.007032348804500703</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2923,19 +3070,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K37">
-        <v>0.004694835680751174</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2947,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2955,13 +3102,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007481296758104738</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2973,19 +3120,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K38">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2997,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3005,13 +3152,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006234413965087282</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3023,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K39">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3047,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3055,13 +3202,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006234413965087282</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3073,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K40">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3097,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3105,7 +3252,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004987531172069825</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3123,19 +3270,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K41">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3147,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3155,7 +3302,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004987531172069825</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -3173,31 +3320,31 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>8</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K42">
-        <v>0.002347417840375587</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3205,7 +3352,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004987531172069825</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3223,19 +3370,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K43">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3247,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>549</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3255,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004987531172069825</v>
+        <v>0.005625879043600563</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3276,28 +3423,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="K44">
-        <v>0.002347417840375587</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1099</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3305,13 +3452,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004987531172069825</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3323,19 +3470,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K45">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3347,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3355,13 +3502,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004987531172069825</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3373,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K46">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3397,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3405,13 +3552,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004987531172069825</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3423,19 +3570,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K47">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3447,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3455,13 +3602,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004987531172069825</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3473,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K48">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3497,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>277</v>
+        <v>954</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3505,7 +3652,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3523,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K49">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3547,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3555,7 +3702,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3573,19 +3720,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K50">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3605,7 +3752,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3626,16 +3773,16 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K51">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3647,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3655,7 +3802,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3673,19 +3820,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K52">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3697,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3705,7 +3852,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3723,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K53">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3747,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3755,7 +3902,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3773,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K54">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3805,7 +3952,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003740648379052369</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -3823,19 +3970,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K55">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3847,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3855,13 +4002,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003740648379052369</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3873,19 +4020,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K56">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3897,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3905,13 +4052,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003740648379052369</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3923,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K57">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3947,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3955,13 +4102,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003740648379052369</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3976,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K58">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3997,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4005,7 +4152,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -4023,19 +4170,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K59">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4047,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4055,7 +4202,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -4076,16 +4223,16 @@
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K60">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4097,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>225</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4105,7 +4252,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4123,19 +4270,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K61">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4147,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4155,7 +4302,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4173,19 +4320,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K62">
-        <v>0.002347417840375587</v>
+        <v>0.00301659125188537</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4197,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4205,7 +4352,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4226,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="K63">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4247,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4255,7 +4402,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -4276,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K64">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4297,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4305,7 +4452,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4323,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K65">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4347,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4355,7 +4502,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4376,10 +4523,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K66">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4405,7 +4552,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -4423,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K67">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4447,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4455,7 +4602,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -4473,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K68">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4497,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4505,7 +4652,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4526,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K69">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4547,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4555,7 +4702,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4573,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="K70">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4597,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4605,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4623,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K71">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4647,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4655,7 +4802,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4673,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K72">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4697,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4705,7 +4852,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4723,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K73">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4755,7 +4902,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002493765586034913</v>
+        <v>0.002812939521800281</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4773,13 +4920,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K74">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4797,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4805,13 +4952,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002493765586034913</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4823,13 +4970,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="K75">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4847,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4855,13 +5002,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002493765586034913</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4876,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K76">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4897,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4905,13 +5052,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002493765586034913</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4923,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="K77">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4947,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4955,13 +5102,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002493765586034913</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4973,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K78">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4997,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>2787</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5005,13 +5152,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002493765586034913</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5023,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K79">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -5047,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5055,7 +5202,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -5076,10 +5223,10 @@
         <v>2</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K80">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5097,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5105,7 +5252,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5126,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K81">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5147,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5155,7 +5302,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5173,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K82">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -5197,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5205,7 +5352,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5223,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="K83">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5247,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5255,7 +5402,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5273,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K84">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5297,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5305,7 +5452,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5323,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K85">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5347,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5355,7 +5502,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5376,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="K86">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5397,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5405,7 +5552,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5423,13 +5570,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K87">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5447,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5455,7 +5602,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5476,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K88">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5497,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5505,7 +5652,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5523,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K89">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5547,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5555,7 +5702,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5573,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="K90">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5597,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5605,7 +5752,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5626,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K91">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5647,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5655,7 +5802,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5673,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K92">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5697,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>6</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5705,7 +5852,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5723,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K93">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5747,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5755,7 +5902,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5773,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K94">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5805,7 +5952,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5823,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K95">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5855,7 +6002,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5876,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="K96">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5897,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5905,7 +6052,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5926,10 +6073,10 @@
         <v>1</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="K97">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5955,7 +6102,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5973,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="K98">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5997,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6005,7 +6152,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -6023,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K99">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6047,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6055,7 +6202,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6076,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="K100">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6097,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>1142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6105,7 +6252,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6123,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K101">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6147,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6155,7 +6302,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6173,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K102">
-        <v>0.002347417840375587</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -6197,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6205,7 +6352,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6223,6 +6370,30 @@
         <v>0</v>
       </c>
       <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K103">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
     </row>
@@ -6231,7 +6402,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6249,7 +6420,31 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K104">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6257,7 +6452,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6275,7 +6470,31 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K105">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6283,7 +6502,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6301,7 +6520,31 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K106">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6309,7 +6552,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6327,7 +6570,31 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K107">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6335,7 +6602,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6353,7 +6620,31 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K108">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6361,7 +6652,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6379,7 +6670,31 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K109">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6387,7 +6702,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6405,6 +6720,30 @@
         <v>0</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K110">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>2</v>
       </c>
     </row>
@@ -6413,7 +6752,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6431,6 +6770,30 @@
         <v>0</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K111">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
         <v>0</v>
       </c>
     </row>
@@ -6439,7 +6802,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6459,13 +6822,37 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="J112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K112">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6485,13 +6872,37 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="J113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K113">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6511,13 +6922,37 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="J114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K114">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6535,15 +6970,39 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K115">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6561,15 +7020,39 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K116">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6587,15 +7070,39 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K117">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6615,13 +7122,37 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="J118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K118">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -6639,15 +7170,39 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K119">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -6665,15 +7220,39 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K120">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6691,15 +7270,39 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K121">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -6717,15 +7320,39 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K122">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -6743,41 +7370,89 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K123">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K124">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -6795,15 +7470,39 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K125">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -6821,15 +7520,39 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K126">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -6847,15 +7570,39 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K127">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6873,15 +7620,39 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K128">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -6899,15 +7670,39 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K129">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6925,15 +7720,39 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K130">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -6951,15 +7770,39 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K131">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001246882793017456</v>
+        <v>0.001406469760900141</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -6977,475 +7820,941 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K132">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="J133" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K133">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="J134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K134">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="J135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K135">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="J136" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K136">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="J137" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K137">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="J138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K138">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="J139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K139">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="J140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K140">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="J141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K141">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="J142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K142">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="J143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K143">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="J144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K144">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K145">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K146">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K147">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0.001246882793017456</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K148">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K149">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K150">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K151">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="10:17">
+      <c r="J152" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K152">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="10:17">
+      <c r="J153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K153">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="10:17">
+      <c r="J154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K154">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="10:17">
+      <c r="J155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K155">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="10:17">
+      <c r="J156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K156">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="10:17">
+      <c r="J157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K157">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="10:17">
+      <c r="J158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K158">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="10:17">
+      <c r="J159" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K159">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="10:17">
+      <c r="J160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K160">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="10:17">
+      <c r="J161" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K161">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="10:17">
+      <c r="J162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K162">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="10:17">
+      <c r="J163" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K163">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="10:17">
+      <c r="J164" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K164">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="10:17">
+      <c r="J165" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K165">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="10:17">
+      <c r="J166" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K166">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="10:17">
+      <c r="J167" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K167">
+        <v>0.001508295625942685</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
